--- a/pandas-exercises/DataFrame/datos_alumnos.xlsx
+++ b/pandas-exercises/DataFrame/datos_alumnos.xlsx
@@ -533,258 +533,258 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sergio</t>
+          <t>Ana</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Romero</t>
+          <t>Silva</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sergio.romero@ejemplo.com</t>
+          <t>ana.silva@ejemplo.com</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
         <v>9</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sergio</t>
+          <t>Elena</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Silva</t>
+          <t>Ortega</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>sergio.silva@ejemplo.com</t>
+          <t>elena.ortega@ejemplo.com</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>7</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Javier</t>
+          <t>David</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Díaz</t>
+          <t>Martínez</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>javier.díaz@ejemplo.com</t>
+          <t>david.martínez@ejemplo.com</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>18</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>8</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="n">
         <v>9</v>
       </c>
-      <c r="G4" t="n">
-        <v>3</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5</v>
-      </c>
       <c r="O4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
         <v>9</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Laura</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Moreno</t>
+          <t>Castro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>david.moreno@ejemplo.com</t>
+          <t>laura.castro@ejemplo.com</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S5" t="n">
         <v>4</v>
@@ -793,42 +793,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Marta</t>
+          <t>Laura</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Silva</t>
+          <t>Núñez</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>marta.silva@ejemplo.com</t>
+          <t>laura.núñez@ejemplo.com</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L6" t="n">
         <v>7</v>
@@ -837,45 +837,45 @@
         <v>7</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R6" t="n">
         <v>6</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Manuel</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Álvarez</t>
+          <t>Díaz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>carlos.álvarez@ejemplo.com</t>
+          <t>manuel.díaz@ejemplo.com</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
@@ -884,279 +884,279 @@
         <v>8</v>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
         <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M7" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Manuel</t>
+          <t>Isabel</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ramos</t>
+          <t>García</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>manuel.ramos@ejemplo.com</t>
+          <t>isabel.garcía@ejemplo.com</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Marta</t>
+          <t>Ana</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Silva</t>
+          <t>López</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>marta.silva@ejemplo.com</t>
+          <t>ana.lópez@ejemplo.com</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L9" t="n">
         <v>5</v>
       </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>10</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
+        <v>7</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>9</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>7</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7</v>
+      </c>
+      <c r="S9" t="n">
         <v>5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3</v>
-      </c>
-      <c r="M9" t="n">
-        <v>8</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>7</v>
-      </c>
-      <c r="R9" t="n">
-        <v>6</v>
-      </c>
-      <c r="S9" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Raquel</t>
+          <t>Patricia</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Silva</t>
+          <t>Martínez</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>raquel.silva@ejemplo.com</t>
+          <t>patricia.martínez@ejemplo.com</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
         <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
         <v>10</v>
       </c>
       <c r="S10" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Rubén</t>
+          <t>Fernando</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Silva</t>
+          <t>Castro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>rubén.silva@ejemplo.com</t>
+          <t>fernando.castro@ejemplo.com</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
@@ -1165,84 +1165,84 @@
         <v>4</v>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Marta</t>
+          <t>Ana</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sánchez</t>
+          <t>Jiménez</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>marta.sánchez@ejemplo.com</t>
+          <t>ana.jiménez@ejemplo.com</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>24</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9</v>
+      </c>
+      <c r="J12" t="n">
+        <v>8</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>10</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7</v>
+      </c>
+      <c r="O12" t="n">
+        <v>8</v>
+      </c>
+      <c r="P12" t="n">
         <v>5</v>
       </c>
-      <c r="G12" t="n">
-        <v>6</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>8</v>
-      </c>
-      <c r="J12" t="n">
-        <v>6</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="n">
-        <v>4</v>
-      </c>
-      <c r="O12" t="n">
-        <v>6</v>
-      </c>
-      <c r="P12" t="n">
-        <v>6</v>
-      </c>
       <c r="Q12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1262,179 +1262,179 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
         <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
         <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O13" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Raquel</t>
+          <t>Fernando</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sánchez</t>
+          <t>Ramos</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>raquel.sánchez@ejemplo.com</t>
+          <t>fernando.ramos@ejemplo.com</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
         <v>9</v>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J14" t="n">
         <v>7</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>6</v>
+      </c>
+      <c r="N14" t="n">
         <v>5</v>
       </c>
-      <c r="M14" t="n">
-        <v>10</v>
-      </c>
-      <c r="N14" t="n">
-        <v>7</v>
-      </c>
       <c r="O14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Cristina</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ruiz</t>
+          <t>Álvarez</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>carlos.ruiz@ejemplo.com</t>
+          <t>cristina.álvarez@ejemplo.com</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K15" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S15" t="n">
         <v>9</v>
@@ -1443,202 +1443,202 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Raquel</t>
+          <t>Ana</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pérez</t>
+          <t>Álvarez</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>raquel.pérez@ejemplo.com</t>
+          <t>ana.álvarez@ejemplo.com</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N16" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sánchez</t>
+          <t>Ramos</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>patricia.sánchez@ejemplo.com</t>
+          <t>carlos.ramos@ejemplo.com</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
         <v>5</v>
       </c>
-      <c r="O17" t="n">
-        <v>7</v>
-      </c>
       <c r="P17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Javier</t>
+          <t>Isabel</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Díaz</t>
+          <t>Gómez</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>javier.díaz@ejemplo.com</t>
+          <t>isabel.gómez@ejemplo.com</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>23</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F18" t="n">
         <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L18" t="n">
         <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N18" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S18" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>José</t>
+          <t>Sergio</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1648,76 +1648,76 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>josé.pérez@ejemplo.com</t>
+          <t>sergio.pérez@ejemplo.com</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>25</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
+        <v>7</v>
+      </c>
+      <c r="I19" t="n">
         <v>9</v>
       </c>
-      <c r="I19" t="n">
-        <v>3</v>
-      </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K19" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q19" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
         <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Javier</t>
+          <t>Laura</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Díaz</t>
+          <t>Castro</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>javier.díaz@ejemplo.com</t>
+          <t>laura.castro@ejemplo.com</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20" t="n">
         <v>6</v>
@@ -1726,108 +1726,108 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P20" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Patricia</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Núñez</t>
+          <t>Ramos</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>patricia.núñez@ejemplo.com</t>
+          <t>carlos.ramos@ejemplo.com</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4</v>
+      </c>
+      <c r="J21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K21" t="n">
+        <v>6</v>
+      </c>
+      <c r="L21" t="n">
+        <v>8</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4</v>
+      </c>
+      <c r="O21" t="n">
+        <v>7</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
         <v>5</v>
       </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="S21" t="n">
         <v>9</v>
-      </c>
-      <c r="K21" t="n">
-        <v>7</v>
-      </c>
-      <c r="L21" t="n">
-        <v>5</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3</v>
-      </c>
-      <c r="O21" t="n">
-        <v>10</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
